--- a/2023/08/22/gps/protocol.start.xlsx
+++ b/2023/08/22/gps/protocol.start.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\github\o-52\fsono\2023\08\22\gps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D86FC-4FD9-4C8B-A451-A97BD1433CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69AB29B-E6C8-4CB7-9188-888DFA21C6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2160" windowWidth="29040" windowHeight="15840" xr2:uid="{098B0D7A-9172-4F4B-B0CA-875AAA21E79C}"/>
+    <workbookView xWindow="-24255" yWindow="3165" windowWidth="21600" windowHeight="11385" xr2:uid="{098B0D7A-9172-4F4B-B0CA-875AAA21E79C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -700,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD3BF07-267C-4393-A827-C8A2B00985DE}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,7 +1969,7 @@
         <v>14</v>
       </c>
       <c r="J44">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
